--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3530253333333334</v>
+        <v>0.300108</v>
       </c>
       <c r="N2">
-        <v>1.059076</v>
+        <v>0.900324</v>
       </c>
       <c r="O2">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="P2">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="Q2">
-        <v>18.21313354994222</v>
+        <v>16.41429551986</v>
       </c>
       <c r="R2">
-        <v>163.91820194948</v>
+        <v>147.72865967874</v>
       </c>
       <c r="S2">
-        <v>0.01376441225099694</v>
+        <v>0.01210275210595987</v>
       </c>
       <c r="T2">
-        <v>0.01376441225099694</v>
+        <v>0.01210275210595987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.932033</v>
       </c>
       <c r="O3">
-        <v>0.3410998794937062</v>
+        <v>0.3338857288757714</v>
       </c>
       <c r="P3">
-        <v>0.3410998794937063</v>
+        <v>0.3338857288757713</v>
       </c>
       <c r="Q3">
-        <v>119.2115039917878</v>
+        <v>126.3816561764672</v>
       </c>
       <c r="R3">
-        <v>1072.90353592609</v>
+        <v>1137.434905588205</v>
       </c>
       <c r="S3">
-        <v>0.09009302443782605</v>
+        <v>0.09318498339412627</v>
       </c>
       <c r="T3">
-        <v>0.09009302443782607</v>
+        <v>0.09318498339412626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.033858333333334</v>
+        <v>4.274320333333333</v>
       </c>
       <c r="N4">
-        <v>12.101575</v>
+        <v>12.822961</v>
       </c>
       <c r="O4">
-        <v>0.5954740512897225</v>
+        <v>0.617625980694349</v>
       </c>
       <c r="P4">
-        <v>0.5954740512897225</v>
+        <v>0.6176259806943489</v>
       </c>
       <c r="Q4">
-        <v>208.1131114666389</v>
+        <v>233.7823620092761</v>
       </c>
       <c r="R4">
-        <v>1873.01800319975</v>
+        <v>2104.041258083485</v>
       </c>
       <c r="S4">
-        <v>0.1572796165585457</v>
+        <v>0.1723747431451248</v>
       </c>
       <c r="T4">
-        <v>0.1572796165585457</v>
+        <v>0.1723747431451247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07663533333333333</v>
+        <v>0.03545833333333333</v>
       </c>
       <c r="N5">
-        <v>0.229906</v>
+        <v>0.106375</v>
       </c>
       <c r="O5">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322663</v>
       </c>
       <c r="P5">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322661</v>
       </c>
       <c r="Q5">
-        <v>3.953737675042222</v>
+        <v>1.939380362986111</v>
       </c>
       <c r="R5">
-        <v>35.58363907538</v>
+        <v>17.454423266875</v>
       </c>
       <c r="S5">
-        <v>0.002988001770390135</v>
+        <v>0.001429963274633889</v>
       </c>
       <c r="T5">
-        <v>0.002988001770390135</v>
+        <v>0.001429963274633889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3530253333333334</v>
+        <v>0.300108</v>
       </c>
       <c r="N6">
-        <v>1.059076</v>
+        <v>0.900324</v>
       </c>
       <c r="O6">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="P6">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="Q6">
-        <v>6.820856595884444</v>
+        <v>5.798432684560002</v>
       </c>
       <c r="R6">
-        <v>61.38770936296</v>
+        <v>52.18589416104001</v>
       </c>
       <c r="S6">
-        <v>0.005154801167698184</v>
+        <v>0.004275358226578564</v>
       </c>
       <c r="T6">
-        <v>0.005154801167698184</v>
+        <v>0.004275358226578563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>6.932033</v>
       </c>
       <c r="O7">
-        <v>0.3410998794937062</v>
+        <v>0.3338857288757714</v>
       </c>
       <c r="P7">
-        <v>0.3410998794937063</v>
+        <v>0.3338857288757713</v>
       </c>
       <c r="Q7">
-        <v>44.64495750157555</v>
+        <v>44.64495750157556</v>
       </c>
       <c r="R7">
-        <v>401.8046175141799</v>
+        <v>401.8046175141801</v>
       </c>
       <c r="S7">
-        <v>0.03374002602544325</v>
+        <v>0.03291806540030487</v>
       </c>
       <c r="T7">
-        <v>0.03374002602544326</v>
+        <v>0.03291806540030487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.033858333333334</v>
+        <v>4.274320333333333</v>
       </c>
       <c r="N8">
-        <v>12.101575</v>
+        <v>12.822961</v>
       </c>
       <c r="O8">
-        <v>0.5954740512897225</v>
+        <v>0.617625980694349</v>
       </c>
       <c r="P8">
-        <v>0.5954740512897225</v>
+        <v>0.6176259806943489</v>
       </c>
       <c r="Q8">
-        <v>77.93879538327778</v>
+        <v>82.58479855611779</v>
       </c>
       <c r="R8">
-        <v>701.4491584495</v>
+        <v>743.2631870050601</v>
       </c>
       <c r="S8">
-        <v>0.05890154525358629</v>
+        <v>0.06089224745807741</v>
       </c>
       <c r="T8">
-        <v>0.05890154525358629</v>
+        <v>0.06089224745807741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07663533333333333</v>
+        <v>0.03545833333333333</v>
       </c>
       <c r="N9">
-        <v>0.229906</v>
+        <v>0.106375</v>
       </c>
       <c r="O9">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322663</v>
       </c>
       <c r="P9">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322661</v>
       </c>
       <c r="Q9">
-        <v>1.480683026084444</v>
+        <v>0.685095895277778</v>
       </c>
       <c r="R9">
-        <v>13.32614723476</v>
+        <v>6.165863057500001</v>
       </c>
       <c r="S9">
-        <v>0.001119012910556767</v>
+        <v>0.0005051417393652672</v>
       </c>
       <c r="T9">
-        <v>0.001119012910556767</v>
+        <v>0.000505141739365267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3530253333333334</v>
+        <v>0.300108</v>
       </c>
       <c r="N10">
-        <v>1.059076</v>
+        <v>0.900324</v>
       </c>
       <c r="O10">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="P10">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="Q10">
-        <v>4.252160132846668</v>
+        <v>3.308305961544</v>
       </c>
       <c r="R10">
-        <v>38.26944119562</v>
+        <v>29.774753653896</v>
       </c>
       <c r="S10">
-        <v>0.003213531865083211</v>
+        <v>0.002439313152050388</v>
       </c>
       <c r="T10">
-        <v>0.003213531865083212</v>
+        <v>0.002439313152050387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.932033</v>
       </c>
       <c r="O11">
-        <v>0.3410998794937062</v>
+        <v>0.3338857288757714</v>
       </c>
       <c r="P11">
-        <v>0.3410998794937063</v>
+        <v>0.3338857288757713</v>
       </c>
       <c r="Q11">
-        <v>27.83191608739833</v>
+        <v>25.47225898623133</v>
       </c>
       <c r="R11">
-        <v>250.487244786585</v>
+        <v>229.250330876082</v>
       </c>
       <c r="S11">
-        <v>0.02103372084279916</v>
+        <v>0.01878146008253396</v>
       </c>
       <c r="T11">
-        <v>0.02103372084279917</v>
+        <v>0.01878146008253396</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.033858333333334</v>
+        <v>4.274320333333333</v>
       </c>
       <c r="N12">
-        <v>12.101575</v>
+        <v>12.822961</v>
       </c>
       <c r="O12">
-        <v>0.5954740512897225</v>
+        <v>0.617625980694349</v>
       </c>
       <c r="P12">
-        <v>0.5954740512897225</v>
+        <v>0.6176259806943489</v>
       </c>
       <c r="Q12">
-        <v>48.58748074704167</v>
+        <v>47.11890199633266</v>
       </c>
       <c r="R12">
-        <v>437.287326723375</v>
+        <v>424.070117966994</v>
       </c>
       <c r="S12">
-        <v>0.03671955259131014</v>
+        <v>0.03474217883287482</v>
       </c>
       <c r="T12">
-        <v>0.03671955259131014</v>
+        <v>0.03474217883287481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07663533333333333</v>
+        <v>0.03545833333333333</v>
       </c>
       <c r="N13">
-        <v>0.229906</v>
+        <v>0.106375</v>
       </c>
       <c r="O13">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322663</v>
       </c>
       <c r="P13">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322661</v>
       </c>
       <c r="Q13">
-        <v>0.9230660759966668</v>
+        <v>0.3908826674166667</v>
       </c>
       <c r="R13">
-        <v>8.307594683970001</v>
+        <v>3.51794400675</v>
       </c>
       <c r="S13">
-        <v>0.0006975989041143609</v>
+        <v>0.0002882095074099547</v>
       </c>
       <c r="T13">
-        <v>0.0006975989041143609</v>
+        <v>0.0002882095074099545</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3530253333333334</v>
+        <v>0.300108</v>
       </c>
       <c r="N14">
-        <v>1.059076</v>
+        <v>0.900324</v>
       </c>
       <c r="O14">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="P14">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="Q14">
-        <v>39.67032773783911</v>
+        <v>33.292079535532</v>
       </c>
       <c r="R14">
-        <v>357.032949640552</v>
+        <v>299.628715819788</v>
       </c>
       <c r="S14">
-        <v>0.0299804942196511</v>
+        <v>0.0245472481729682</v>
       </c>
       <c r="T14">
-        <v>0.02998049421965111</v>
+        <v>0.02454724817296819</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.932033</v>
       </c>
       <c r="O15">
-        <v>0.3410998794937062</v>
+        <v>0.3338857288757714</v>
       </c>
       <c r="P15">
-        <v>0.3410998794937063</v>
+        <v>0.3338857288757713</v>
       </c>
       <c r="Q15">
-        <v>259.6565506153628</v>
+        <v>256.3319360351745</v>
       </c>
       <c r="R15">
-        <v>2336.908955538266</v>
+        <v>2306.98742431657</v>
       </c>
       <c r="S15">
-        <v>0.1962331081876378</v>
+        <v>0.1890012199988063</v>
       </c>
       <c r="T15">
-        <v>0.1962331081876378</v>
+        <v>0.1890012199988062</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.033858333333334</v>
+        <v>4.274320333333333</v>
       </c>
       <c r="N16">
-        <v>12.101575</v>
+        <v>12.822961</v>
       </c>
       <c r="O16">
-        <v>0.5954740512897225</v>
+        <v>0.617625980694349</v>
       </c>
       <c r="P16">
-        <v>0.5954740512897225</v>
+        <v>0.6176259806943489</v>
       </c>
       <c r="Q16">
-        <v>453.2946137897944</v>
+        <v>474.1660085625007</v>
       </c>
       <c r="R16">
-        <v>4079.65152410815</v>
+        <v>4267.494077062506</v>
       </c>
       <c r="S16">
-        <v>0.3425733368862804</v>
+        <v>0.349616811258272</v>
       </c>
       <c r="T16">
-        <v>0.3425733368862804</v>
+        <v>0.3496168112582719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07663533333333333</v>
+        <v>0.03545833333333333</v>
       </c>
       <c r="N17">
-        <v>0.229906</v>
+        <v>0.106375</v>
       </c>
       <c r="O17">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322663</v>
       </c>
       <c r="P17">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322661</v>
       </c>
       <c r="Q17">
-        <v>8.61170149157911</v>
+        <v>3.933522776902777</v>
       </c>
       <c r="R17">
-        <v>77.50531342421199</v>
+        <v>35.401704992125</v>
       </c>
       <c r="S17">
-        <v>0.006508216128080616</v>
+        <v>0.002900304250913552</v>
       </c>
       <c r="T17">
-        <v>0.006508216128080616</v>
+        <v>0.002900304250913551</v>
       </c>
     </row>
   </sheetData>
